--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P17_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P17_trail13 Features.xlsx
@@ -2367,7 +2367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2378,29 +2378,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="17" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2421,115 +2419,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2546,72 +2534,66 @@
         <v>3.183046806571503e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.42482242033743</v>
+        <v>2.003805670367939e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.315363033148398</v>
+        <v>2.867909565571079e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.003805670367939e-06</v>
+        <v>0.06598971287405278</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.867909565571079e-06</v>
+        <v>0.3126180226649054</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.06598971287405278</v>
+        <v>0.1019488503011827</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3126180226649054</v>
+        <v>1.896470462545124</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1019488503011827</v>
+        <v>1.779444112640064</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.890904902892635</v>
+        <v>5.322573088517624</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.779444112640064</v>
+        <v>4.81492361245428e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.322573088517624</v>
+        <v>389229445.6678909</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.81492361245428e-16</v>
+        <v>3.100835445593407e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>389229445.6678909</v>
+        <v>72.94588153406343</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.100835445593407e-07</v>
+        <v>0.0001546696086809497</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>72.94588153406343</v>
+        <v>9.093131285303375</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001546696086809497</v>
+        <v>1.414503707164669</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.093131285303375</v>
+        <v>0.0127888622503246</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.414503707164669</v>
+        <v>3.156126588344293</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0127888622503246</v>
+        <v>0.9581696870714418</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.156126588344293</v>
+        <v>1.449897359331953</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9581696870714418</v>
+        <v>35</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.449897359331953</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.461187518795722</v>
       </c>
     </row>
@@ -2626,72 +2608,66 @@
         <v>2.705286995885452e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.5642496732784475</v>
+        <v>1.588878136556565e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.351924500924091</v>
+        <v>2.88521362680979e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.588878136556565e-06</v>
+        <v>0.05143046048668519</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.88521362680979e-06</v>
+        <v>0.3150703313460728</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.05143046048668519</v>
+        <v>0.1017916150230405</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3150703313460728</v>
+        <v>1.901898281948562</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1017916150230405</v>
+        <v>1.966358887932453</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.906619280699902</v>
+        <v>4.752825121622331</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.966358887932453</v>
+        <v>2.26048177777352e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.752825121622331</v>
+        <v>806334229.4285167</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.26048177777352e-16</v>
+        <v>1.491971772238442e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>806334229.4285167</v>
+        <v>146.9708490189346</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.491971772238442e-07</v>
+        <v>0.0001116207826027118</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>146.9708490189346</v>
+        <v>7.966058320071242</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001116207826027118</v>
+        <v>1.26794032633689</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.966058320071242</v>
+        <v>0.007083241127892133</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.26794032633689</v>
+        <v>3.355004194985615</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.007083241127892133</v>
+        <v>0.9585105675369403</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.355004194985615</v>
+        <v>1.356037856464584</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9585105675369403</v>
+        <v>35</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.356037856464584</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.6495620836406932</v>
       </c>
     </row>
@@ -2706,72 +2682,66 @@
         <v>2.432226206435756e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.1059131576119796</v>
+        <v>1.245499175324441e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.591284417729252</v>
+        <v>2.896101074250625e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.245499175324441e-06</v>
+        <v>0.0331066106574056</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.896101074250625e-06</v>
+        <v>0.3027943896430888</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0331066106574056</v>
+        <v>0.09266741408302216</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3027943896430888</v>
+        <v>1.899901902727316</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.09266741408302216</v>
+        <v>2.17932176880639</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.91202464386612</v>
+        <v>5.272799235929186</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.17932176880639</v>
+        <v>1.776232126262464e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.272799235929186</v>
+        <v>1020583669.774343</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.776232126262464e-16</v>
+        <v>1.179285369849753e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>1020583669.774343</v>
+        <v>185.010744460199</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.179285369849753e-07</v>
+        <v>0.0001081805266642218</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>185.010744460199</v>
+        <v>7.198955739904302</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001081805266642218</v>
+        <v>1.421120952907031</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.198955739904302</v>
+        <v>0.005606451872299235</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.421120952907031</v>
+        <v>3.399954298223331</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.005606451872299235</v>
+        <v>0.9595512118480709</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.399954298223331</v>
+        <v>1.343898825258321</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9595512118480709</v>
+        <v>35</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.343898825258321</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.6869959586822075</v>
       </c>
     </row>
@@ -2786,72 +2756,66 @@
         <v>2.319101645395145e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.3868018081453011</v>
+        <v>9.370021523080039e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.174512872828242</v>
+        <v>2.901483596274432e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>9.370021523080039e-07</v>
+        <v>0.0121593587397195</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.901483596274432e-06</v>
+        <v>0.2690594051103368</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.0121593587397195</v>
+        <v>0.07243306196567259</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2690594051103368</v>
+        <v>1.895365878451421</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.07243306196567259</v>
+        <v>2.226614425710874</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.910169461029208</v>
+        <v>5.566168143630596</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.226614425710874</v>
+        <v>1.972083160720473e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.566168143630596</v>
+        <v>910836103.989694</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.972083160720473e-16</v>
+        <v>1.319544827172745e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>910836103.989694</v>
+        <v>163.6084381226175</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.319544827172745e-07</v>
+        <v>0.0001091400011068622</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>163.6084381226175</v>
+        <v>7.015837191209277</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001091400011068622</v>
+        <v>1.388313707844427</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.015837191209277</v>
+        <v>0.005372086023288563</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.388313707844427</v>
+        <v>3.409909486794409</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.005372086023288563</v>
+        <v>0.9607274467716628</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.409909486794409</v>
+        <v>1.359134677831146</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9607274467716628</v>
+        <v>35</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.359134677831146</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.6741042331212209</v>
       </c>
     </row>
@@ -3228,7 +3192,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.287515007234549</v>
+        <v>1.305909413383478</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.820996506818568</v>
@@ -3317,7 +3281,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.289814322499169</v>
+        <v>1.308675759680181</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.769806751393185</v>
@@ -3406,7 +3370,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.323180988466795</v>
+        <v>1.332082890670674</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.708272813850343</v>
@@ -3495,7 +3459,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.334782800375267</v>
+        <v>1.34094446599292</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.71415511719935</v>
@@ -3584,7 +3548,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.374293824897376</v>
+        <v>1.380591018628155</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.475970732697556</v>
@@ -3673,7 +3637,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.558486133503681</v>
+        <v>1.567111895206381</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.311214186020498</v>
@@ -3762,7 +3726,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.565308890969627</v>
+        <v>1.568866390764113</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.208531570231673</v>
@@ -3851,7 +3815,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.584810651648376</v>
+        <v>1.586215388200751</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.149873150261518</v>
@@ -3940,7 +3904,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.575000487256661</v>
+        <v>1.575422076616718</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.192661534875016</v>
@@ -4029,7 +3993,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.568553408500826</v>
+        <v>1.569762042115813</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.143175235201702</v>
@@ -4118,7 +4082,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.555271544470621</v>
+        <v>1.556406196595269</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.073133690679213</v>
@@ -4207,7 +4171,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.555823529689496</v>
+        <v>1.555493406038737</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.136440807586589</v>
@@ -4296,7 +4260,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.555112308336789</v>
+        <v>1.555802933718591</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.178235645549267</v>
@@ -4385,7 +4349,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.571720395966471</v>
+        <v>1.573890475862892</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.070189632313125</v>
@@ -4474,7 +4438,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.572012923312394</v>
+        <v>1.574722121899696</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.05706878265698</v>
@@ -4563,7 +4527,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.564136737521085</v>
+        <v>1.56904088945443</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.978410074157491</v>
@@ -4652,7 +4616,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.580503675914436</v>
+        <v>1.580453245794669</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.013760702881094</v>
@@ -4741,7 +4705,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.559428652357843</v>
+        <v>1.560947725052974</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.014787624746904</v>
@@ -4830,7 +4794,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.647758280454966</v>
+        <v>1.6335877333894</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.892041892391096</v>
@@ -4919,7 +4883,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.663301355751922</v>
+        <v>1.639452925594151</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.667488865245799</v>
@@ -5008,7 +4972,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.677082687651828</v>
+        <v>1.646365164467567</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.340114874270342</v>
@@ -5097,7 +5061,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.661510156213399</v>
+        <v>1.633801232588489</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.518532004964079</v>
@@ -5186,7 +5150,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.653533134629675</v>
+        <v>1.627312198302079</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.564603867458239</v>
@@ -5275,7 +5239,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.656654363260697</v>
+        <v>1.626123170690434</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.526905661428938</v>
@@ -5364,7 +5328,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.653277672089563</v>
+        <v>1.620066638388749</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.479327246037536</v>
@@ -5453,7 +5417,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.621867456796687</v>
+        <v>1.603015445871792</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.633527351807601</v>
@@ -5542,7 +5506,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.616656692643483</v>
+        <v>1.619180115893608</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.48570394530954</v>
@@ -5631,7 +5595,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.618299178199355</v>
+        <v>1.620373604012815</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.38977973304684</v>
@@ -5720,7 +5684,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.619110288787018</v>
+        <v>1.614161798909885</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.488135981884095</v>
@@ -5809,7 +5773,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.619697497955328</v>
+        <v>1.608998962593448</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.670730069373571</v>
@@ -5898,7 +5862,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.630201847231233</v>
+        <v>1.616529127845172</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.529865216540848</v>
@@ -5987,7 +5951,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.633532248077023</v>
+        <v>1.619485161154811</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.381492376339436</v>
@@ -6076,7 +6040,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.624449571538301</v>
+        <v>1.604144877928972</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.543346556616422</v>
@@ -6165,7 +6129,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.621218739065865</v>
+        <v>1.593966328625051</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.591487661080718</v>
@@ -6254,7 +6218,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.603271782715499</v>
+        <v>1.578593519884051</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.570052467686613</v>
@@ -6343,7 +6307,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.604059591375195</v>
+        <v>1.57950833689151</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.519368567500065</v>
@@ -6432,7 +6396,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.58453027879796</v>
+        <v>1.565584156635301</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.64007270544429</v>
@@ -6521,7 +6485,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.590710361801581</v>
+        <v>1.569460278149528</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.441562814853799</v>
@@ -6610,7 +6574,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.585438209070406</v>
+        <v>1.569098530579461</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.663859877318985</v>
@@ -6699,7 +6663,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.585922092649912</v>
+        <v>1.574487961903955</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.565256745132518</v>
@@ -6788,7 +6752,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.613397152069363</v>
+        <v>1.587592740478931</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.672897048721635</v>
@@ -6877,7 +6841,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.618398869485995</v>
+        <v>1.574617880780933</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.836215361686555</v>
@@ -6966,7 +6930,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.609439209125765</v>
+        <v>1.561577537258193</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.763966823430065</v>
@@ -7055,7 +7019,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.611068421262194</v>
+        <v>1.562723120684375</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.588900541340544</v>
@@ -7144,7 +7108,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.606576632523376</v>
+        <v>1.562227774232883</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.776236812821794</v>
@@ -7233,7 +7197,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.599700332786198</v>
+        <v>1.552691689834077</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.646371411535414</v>
@@ -7322,7 +7286,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.593296705199704</v>
+        <v>1.545257371773646</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.666277269477847</v>
@@ -7411,7 +7375,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.610201118041333</v>
+        <v>1.564127692538372</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.920027395654328</v>
@@ -7500,7 +7464,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.627140786991374</v>
+        <v>1.579896666289506</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.689184966126441</v>
@@ -7786,7 +7750,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.469092851949528</v>
+        <v>1.471369061140674</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.495555999540333</v>
@@ -7875,7 +7839,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.488453380877455</v>
+        <v>1.493648471772035</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.403122929178171</v>
@@ -7964,7 +7928,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.437567012426879</v>
+        <v>1.441649007658814</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.338247086215062</v>
@@ -8053,7 +8017,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.417813561899929</v>
+        <v>1.416861128013366</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.246108659666989</v>
@@ -8142,7 +8106,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.422373574779727</v>
+        <v>1.418176846054574</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.178526958666184</v>
@@ -8231,7 +8195,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.476167552601236</v>
+        <v>1.463413402747178</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.288160444441271</v>
@@ -8320,7 +8284,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.491145572128429</v>
+        <v>1.477611589769212</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.46010389951716</v>
@@ -8409,7 +8373,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.470385134087375</v>
+        <v>1.45727079889635</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.296045307781972</v>
@@ -8498,7 +8462,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.480399147282712</v>
+        <v>1.465493396070774</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.453960888149013</v>
@@ -8587,7 +8551,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.473942405797967</v>
+        <v>1.464180241110426</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.458778022283436</v>
@@ -8676,7 +8640,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.468146512601252</v>
+        <v>1.461359315649377</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.306260554845685</v>
@@ -8765,7 +8729,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.475858675407373</v>
+        <v>1.47391757312374</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.349939447204743</v>
@@ -8854,7 +8818,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.485919664635125</v>
+        <v>1.493540497108861</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.457997914203979</v>
@@ -8943,7 +8907,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.497091846799976</v>
+        <v>1.51226626500474</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.50540327633919</v>
@@ -9032,7 +8996,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.535507253979654</v>
+        <v>1.552767933840294</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.321718647458337</v>
@@ -9121,7 +9085,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.550126670686167</v>
+        <v>1.573462671940313</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.448418691240645</v>
@@ -9210,7 +9174,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.556844821491492</v>
+        <v>1.578429355831418</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.538818431915475</v>
@@ -9299,7 +9263,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.560083336408302</v>
+        <v>1.581571422497585</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.479497131384864</v>
@@ -9388,7 +9352,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.582767934848734</v>
+        <v>1.605544181098324</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.38135953790716</v>
@@ -9477,7 +9441,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.564224335951027</v>
+        <v>1.592655308883455</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.591916566048475</v>
@@ -9566,7 +9530,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.560692274923134</v>
+        <v>1.589749115868749</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.629204373474394</v>
@@ -9655,7 +9619,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.554709851802297</v>
+        <v>1.584608584389899</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.53679844160665</v>
@@ -9744,7 +9708,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.555813912703526</v>
+        <v>1.580987942406382</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.594965299600432</v>
@@ -9833,7 +9797,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.554150983820553</v>
+        <v>1.581673096160117</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.542464811652918</v>
@@ -9922,7 +9886,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.561853620337758</v>
+        <v>1.589291505187392</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.45210348048071</v>
@@ -10011,7 +9975,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.576191205378785</v>
+        <v>1.588841017621726</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.640940487493964</v>
@@ -10100,7 +10064,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.571255464195771</v>
+        <v>1.582886165770548</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.53922574832566</v>
@@ -10189,7 +10153,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.56235056275835</v>
+        <v>1.570702892323509</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.526573566761294</v>
@@ -10278,7 +10242,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.556364500850266</v>
+        <v>1.559959056361539</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.647013874826696</v>
@@ -10367,7 +10331,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.539426013743357</v>
+        <v>1.543111798346583</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.602831345599122</v>
@@ -10456,7 +10420,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.467286090813595</v>
+        <v>1.478504263540907</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.117801788221239</v>
@@ -10545,7 +10509,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.458938282142792</v>
+        <v>1.467880687197769</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.019504014236986</v>
@@ -10634,7 +10598,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.456188846232877</v>
+        <v>1.464215941764171</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.162790006090241</v>
@@ -10723,7 +10687,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.441913559114666</v>
+        <v>1.44424084125016</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.011062629387584</v>
@@ -10812,7 +10776,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.434360879212159</v>
+        <v>1.435419143780228</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.988414207862698</v>
@@ -10901,7 +10865,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.433741221886828</v>
+        <v>1.43644770086238</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.00332616863189</v>
@@ -10990,7 +10954,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.430519918943048</v>
+        <v>1.430695371324227</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.036029067583878</v>
@@ -11079,7 +11043,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.437905853898174</v>
+        <v>1.436641693345195</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.021373834620174</v>
@@ -11168,7 +11132,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.433295131923267</v>
+        <v>1.430225187238754</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.020736859024341</v>
@@ -11257,7 +11221,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.428751382779383</v>
+        <v>1.427254028297283</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.055218617642383</v>
@@ -11346,7 +11310,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.415790709266278</v>
+        <v>1.42170161474905</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.99309944528615</v>
@@ -11435,7 +11399,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.451705414941824</v>
+        <v>1.451656426587104</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.927000722030229</v>
@@ -11524,7 +11488,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.460749203804962</v>
+        <v>1.458147753182407</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.952279238208218</v>
@@ -11613,7 +11577,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.456441288547413</v>
+        <v>1.455959137862218</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.98769567640079</v>
@@ -11702,7 +11666,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.473531994374666</v>
+        <v>1.462007745708665</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.945338605952734</v>
@@ -11791,7 +11755,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.539462297842829</v>
+        <v>1.525105402251284</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.692121702298596</v>
@@ -11880,7 +11844,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.555452324750781</v>
+        <v>1.538493052908484</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.717262894734417</v>
@@ -11969,7 +11933,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.564540383938814</v>
+        <v>1.542719418486963</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.631320902994568</v>
@@ -12058,7 +12022,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.578480652195224</v>
+        <v>1.554759079902498</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.586281422178097</v>
@@ -12344,7 +12308,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.556646467651213</v>
+        <v>1.583532503692005</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.422978364159056</v>
@@ -12433,7 +12397,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.567115626211432</v>
+        <v>1.592572145728225</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.313212021771821</v>
@@ -12522,7 +12486,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.515074837191606</v>
+        <v>1.535793723342073</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.006031350454237</v>
@@ -12611,7 +12575,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.499126490213282</v>
+        <v>1.5144541332035</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.255693960284574</v>
@@ -12700,7 +12664,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.517617234023161</v>
+        <v>1.527506749303787</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.082942232678282</v>
@@ -12789,7 +12753,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.513427766804522</v>
+        <v>1.511323320916654</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.417809507338997</v>
@@ -12878,7 +12842,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.529176584152519</v>
+        <v>1.520377916500505</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.500939665896173</v>
@@ -12967,7 +12931,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.529625394693207</v>
+        <v>1.520796112160659</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.175386616981257</v>
@@ -13056,7 +13020,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.559709252271771</v>
+        <v>1.546799971534121</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.555189159248523</v>
@@ -13145,7 +13109,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.555961718059714</v>
+        <v>1.548356013061915</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.000694420555476</v>
@@ -13234,7 +13198,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.585853630765881</v>
+        <v>1.570231811125249</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.429997759395043</v>
@@ -13323,7 +13287,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.613114320770704</v>
+        <v>1.590005174165396</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.868257660055491</v>
@@ -13412,7 +13376,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.610815603060266</v>
+        <v>1.588515354906583</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.97544688609358</v>
@@ -13501,7 +13465,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.619470619594837</v>
+        <v>1.604130179266989</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.810258377259314</v>
@@ -13590,7 +13554,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.630360190861787</v>
+        <v>1.608840611340582</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.263309273804504</v>
@@ -13679,7 +13643,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.620127982592593</v>
+        <v>1.611713751582342</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.02414148660153</v>
@@ -13768,7 +13732,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.636662541150397</v>
+        <v>1.62745767801874</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.132883440550578</v>
@@ -13857,7 +13821,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.633207692734747</v>
+        <v>1.624014021247997</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.773566095757981</v>
@@ -13946,7 +13910,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.643861821912348</v>
+        <v>1.637767159219762</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.961598314546003</v>
@@ -14035,7 +13999,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.643838942091462</v>
+        <v>1.638087049177379</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.088516988308967</v>
@@ -14124,7 +14088,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.633413871742099</v>
+        <v>1.636179361627115</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.934213214247195</v>
@@ -14213,7 +14177,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.637592279987985</v>
+        <v>1.639176146821033</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.210762870122055</v>
@@ -14302,7 +14266,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.629174752133484</v>
+        <v>1.63287665742051</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.174772167756168</v>
@@ -14391,7 +14355,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.636859279707054</v>
+        <v>1.639874672594371</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.774004004345188</v>
@@ -14480,7 +14444,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.616383850021307</v>
+        <v>1.621446345660369</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.176427919881978</v>
@@ -14569,7 +14533,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.581909694170014</v>
+        <v>1.596001031467237</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.846685578219175</v>
@@ -14658,7 +14622,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.585392311309264</v>
+        <v>1.595950921570756</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.848919480800351</v>
@@ -14747,7 +14711,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.583200284227376</v>
+        <v>1.594005821626034</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.856149119158</v>
@@ -14836,7 +14800,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.556999077079417</v>
+        <v>1.565232114188843</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.772646953312411</v>
@@ -14925,7 +14889,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.565101541624261</v>
+        <v>1.569980778383261</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.742884201241671</v>
@@ -15014,7 +14978,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.564542784613849</v>
+        <v>1.562005512216542</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.819105247208896</v>
@@ -15103,7 +15067,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.534783234657502</v>
+        <v>1.534151248806821</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.573640912100232</v>
@@ -15192,7 +15156,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.543003824741768</v>
+        <v>1.537296666533079</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.553677883454857</v>
@@ -15281,7 +15245,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.541260509818872</v>
+        <v>1.525101282385196</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.803735550374637</v>
@@ -15370,7 +15334,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.523221343863865</v>
+        <v>1.509170147963483</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.672543490230888</v>
@@ -15459,7 +15423,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.515942096908596</v>
+        <v>1.502411978845907</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.726457963286586</v>
@@ -15548,7 +15512,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.509826805885809</v>
+        <v>1.496910978487063</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.629226191401062</v>
@@ -15637,7 +15601,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.503089909178452</v>
+        <v>1.488059284640006</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.716551067894179</v>
@@ -15726,7 +15690,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.503575244358011</v>
+        <v>1.488422093525257</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.491909267011461</v>
@@ -15815,7 +15779,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.516341421739357</v>
+        <v>1.50052641497529</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.664973303105725</v>
@@ -15904,7 +15868,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.51431985886908</v>
+        <v>1.491476978003074</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.553290759061455</v>
@@ -15993,7 +15957,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.506174012729028</v>
+        <v>1.482009886513849</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.597127648620566</v>
@@ -16082,7 +16046,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.512211548081245</v>
+        <v>1.484892864057455</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.658226524418699</v>
@@ -16171,7 +16135,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.526250210126892</v>
+        <v>1.491081971504252</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.725774096680128</v>
@@ -16260,7 +16224,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.506545091732719</v>
+        <v>1.476798290673651</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.535832208475709</v>
@@ -16349,7 +16313,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.498800342531978</v>
+        <v>1.472836733139251</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.23905419088376</v>
@@ -16438,7 +16402,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.494452398961537</v>
+        <v>1.469418057419974</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.495342155461488</v>
@@ -16527,7 +16491,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.492818350189994</v>
+        <v>1.468811096797578</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.556458910642797</v>
@@ -16616,7 +16580,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.49332628439786</v>
+        <v>1.468589884252572</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.308876440570641</v>
@@ -16902,7 +16866,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.376478123056405</v>
+        <v>1.366436289399548</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.130903076564276</v>
@@ -16991,7 +16955,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.388576312587604</v>
+        <v>1.376999234351654</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.97490270564513</v>
@@ -17080,7 +17044,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.434684130507946</v>
+        <v>1.418643345616843</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.872005421310908</v>
@@ -17169,7 +17133,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.443380617688528</v>
+        <v>1.425850699713713</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.046815913591248</v>
@@ -17258,7 +17222,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.460179694211015</v>
+        <v>1.439407460698875</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.898563390222306</v>
@@ -17347,7 +17311,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.496663869475621</v>
+        <v>1.493855629414246</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.279821697839453</v>
@@ -17436,7 +17400,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.53510296484981</v>
+        <v>1.52912624653862</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.599611438926152</v>
@@ -17525,7 +17489,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.551323314971631</v>
+        <v>1.545850289996506</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.156665098919742</v>
@@ -17614,7 +17578,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.552238951946633</v>
+        <v>1.552792217127332</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.753908509573032</v>
@@ -17703,7 +17667,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.555636286733605</v>
+        <v>1.555243022191521</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.093520922434903</v>
@@ -17792,7 +17756,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.575869133729575</v>
+        <v>1.574374337673065</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.866205354625213</v>
@@ -17881,7 +17845,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.593638564650754</v>
+        <v>1.59535577047491</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.09630891255589</v>
@@ -17970,7 +17934,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.593167488982699</v>
+        <v>1.590255662457682</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.963472765877942</v>
@@ -18059,7 +18023,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.580890461434267</v>
+        <v>1.581401174745832</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.744467566367796</v>
@@ -18148,7 +18112,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.594052923719773</v>
+        <v>1.597265282423978</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.070412152410885</v>
@@ -18237,7 +18201,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.60332609277421</v>
+        <v>1.608213740691983</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.120412490476757</v>
@@ -18326,7 +18290,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.605295467833409</v>
+        <v>1.608778502721995</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.994834948770304</v>
@@ -18415,7 +18379,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.610786829296985</v>
+        <v>1.610768112089743</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.569589084778488</v>
@@ -18504,7 +18468,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.603846900511898</v>
+        <v>1.606603731883011</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.862048873473821</v>
@@ -18593,7 +18557,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.589075795985898</v>
+        <v>1.594609935958667</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.931289257952208</v>
@@ -18682,7 +18646,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.592163720122289</v>
+        <v>1.597247427547125</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.031525338988887</v>
@@ -18771,7 +18735,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.595596759599077</v>
+        <v>1.599622918577075</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.790207863155465</v>
@@ -18860,7 +18824,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.580717944170842</v>
+        <v>1.584073084811066</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.987666861092335</v>
@@ -18949,7 +18913,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.584220050707698</v>
+        <v>1.579772348570045</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.920900289071937</v>
@@ -19038,7 +19002,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.58434358889066</v>
+        <v>1.579714529382923</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.031778972376015</v>
@@ -19127,7 +19091,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.556600138190528</v>
+        <v>1.552911984014186</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.630073838283763</v>
@@ -19216,7 +19180,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.535850056470097</v>
+        <v>1.537399186296716</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.641612696102666</v>
@@ -19305,7 +19269,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.541947507715871</v>
+        <v>1.539886648243435</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.271340824546041</v>
@@ -19394,7 +19358,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.561641418372557</v>
+        <v>1.555194864641148</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.608975895394098</v>
@@ -19483,7 +19447,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.56546097492825</v>
+        <v>1.555427255593843</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.530497813643673</v>
@@ -19572,7 +19536,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.563503286107614</v>
+        <v>1.552914691708248</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.632701728372021</v>
@@ -19661,7 +19625,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.557727545030149</v>
+        <v>1.545638950955879</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.424040387579208</v>
@@ -19750,7 +19714,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.560679689459221</v>
+        <v>1.548184832220038</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.573053354040654</v>
@@ -19839,7 +19803,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.57552491826426</v>
+        <v>1.556608144436165</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.433500071084862</v>
@@ -19928,7 +19892,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.573638229897654</v>
+        <v>1.561199382679599</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.466771390505058</v>
@@ -20017,7 +19981,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.58517025053878</v>
+        <v>1.575203843450068</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.580995374452761</v>
@@ -20106,7 +20070,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.57608479693121</v>
+        <v>1.570328456718892</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.526532310719428</v>
@@ -20195,7 +20159,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.573517261010205</v>
+        <v>1.565943390695773</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.574806800122827</v>
@@ -20284,7 +20248,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.571798465859396</v>
+        <v>1.566428929891246</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.604243619809384</v>
@@ -20373,7 +20337,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.56983814741683</v>
+        <v>1.562750577605781</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.392182772790296</v>
@@ -20462,7 +20426,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.595531797276946</v>
+        <v>1.583770017230819</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.886121335017603</v>
@@ -20551,7 +20515,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.59783708238471</v>
+        <v>1.574706600309005</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.047520826987205</v>
@@ -20640,7 +20604,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.604744730460726</v>
+        <v>1.583511699159601</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.945495867104316</v>
@@ -20729,7 +20693,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.595137163915288</v>
+        <v>1.574126007792836</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.03225416812092</v>
@@ -20818,7 +20782,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.599455904904807</v>
+        <v>1.579703628465116</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.120514187312522</v>
@@ -20907,7 +20871,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.59692702463151</v>
+        <v>1.568161935534454</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.070660990018009</v>
@@ -20996,7 +20960,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.598365837088953</v>
+        <v>1.570914092233799</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.980547825231746</v>
@@ -21085,7 +21049,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.59757612207554</v>
+        <v>1.571396591257905</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.901753371389697</v>
@@ -21174,7 +21138,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.600012576685401</v>
+        <v>1.57090524075889</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.683339707500827</v>
@@ -21460,7 +21424,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.445743033093532</v>
+        <v>1.451916026178643</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.378838352411626</v>
@@ -21549,7 +21513,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.466277774577715</v>
+        <v>1.471796968487213</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.312100379018069</v>
@@ -21638,7 +21602,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.478962793177175</v>
+        <v>1.483969465767188</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.265523134578376</v>
@@ -21727,7 +21691,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.493563758474306</v>
+        <v>1.500486583034635</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.186245195376168</v>
@@ -21816,7 +21780,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.495261703064209</v>
+        <v>1.500578453298866</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.089298381621773</v>
@@ -21905,7 +21869,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.572928910141371</v>
+        <v>1.571081122357985</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.879442527402852</v>
@@ -21994,7 +21958,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.567443811506906</v>
+        <v>1.56684606367408</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.126662629221977</v>
@@ -22083,7 +22047,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.585157093563895</v>
+        <v>1.587382857866029</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.213567136545922</v>
@@ -22172,7 +22136,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.581767987191143</v>
+        <v>1.584432708174109</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.162096618885457</v>
@@ -22261,7 +22225,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.581698092092671</v>
+        <v>1.585274481284463</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.789232191524297</v>
@@ -22350,7 +22314,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.577508545863886</v>
+        <v>1.580603789838161</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.190529885121672</v>
@@ -22439,7 +22403,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.587865521056656</v>
+        <v>1.596283778024551</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.023625994986658</v>
@@ -22528,7 +22492,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.587392176695799</v>
+        <v>1.600812542917706</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.119082032989902</v>
@@ -22617,7 +22581,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.595658751151101</v>
+        <v>1.610503284125874</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.274977398604214</v>
@@ -22706,7 +22670,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.584950732246189</v>
+        <v>1.600838101598751</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.17078915726197</v>
@@ -22795,7 +22759,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.589258183611223</v>
+        <v>1.603055977426</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.082901272122893</v>
@@ -22884,7 +22848,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.594817466810163</v>
+        <v>1.605385580231929</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.028739315516939</v>
@@ -22973,7 +22937,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.587619848667637</v>
+        <v>1.589682949946052</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.279798719523689</v>
@@ -23062,7 +23026,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.558793814416903</v>
+        <v>1.557448131920693</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.313092639688823</v>
@@ -23151,7 +23115,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.54198402850441</v>
+        <v>1.546030819207529</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.503561443087625</v>
@@ -23240,7 +23204,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.54051441962679</v>
+        <v>1.54513290428773</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.36189096321247</v>
@@ -23329,7 +23293,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.511679094506114</v>
+        <v>1.516501034353452</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.293430925259938</v>
@@ -23418,7 +23382,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.45955419179941</v>
+        <v>1.464379637515231</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.418887496623753</v>
@@ -23507,7 +23471,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.45261841678671</v>
+        <v>1.457739235090828</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.415603203114876</v>
@@ -23596,7 +23560,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.444703028588644</v>
+        <v>1.44829661360327</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.426820539380608</v>
@@ -23685,7 +23649,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.453553427459802</v>
+        <v>1.463411731884566</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.488961093943837</v>
@@ -23774,7 +23738,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.456218165509347</v>
+        <v>1.468093975384453</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.460560824411448</v>
@@ -23863,7 +23827,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.457655946181245</v>
+        <v>1.468432491234621</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.427443481379194</v>
@@ -23952,7 +23916,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.436805251826837</v>
+        <v>1.449041238298164</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.48435667000169</v>
@@ -24041,7 +24005,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.434681106296249</v>
+        <v>1.449322432676686</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.443448113648715</v>
@@ -24130,7 +24094,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.422290601867503</v>
+        <v>1.43783137767342</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.490087011045413</v>
@@ -24219,7 +24183,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.425279055295219</v>
+        <v>1.440875854375379</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.387400793889801</v>
@@ -24308,7 +24272,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.430141284032513</v>
+        <v>1.450702097885888</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.564296756992928</v>
@@ -24397,7 +24361,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.451461851918701</v>
+        <v>1.467442996547493</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.471122608118555</v>
@@ -24486,7 +24450,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.447181534485225</v>
+        <v>1.462615095173884</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.599278027152311</v>
@@ -24575,7 +24539,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.450117758145628</v>
+        <v>1.465397771698243</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.630661950860819</v>
@@ -24664,7 +24628,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.459474729839872</v>
+        <v>1.477671288798545</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.527463873351118</v>
@@ -24753,7 +24717,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.488230193862468</v>
+        <v>1.501899577398644</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.602292199194959</v>
@@ -24842,7 +24806,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.471190989177238</v>
+        <v>1.484630874695138</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.558752241400312</v>
@@ -24931,7 +24895,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.485221629507637</v>
+        <v>1.496083701039841</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.40000481092122</v>
@@ -25020,7 +24984,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.454625682484289</v>
+        <v>1.463164076584554</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.288884198038903</v>
@@ -25109,7 +25073,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.454176892283188</v>
+        <v>1.457488321878567</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.384565322460686</v>
@@ -25198,7 +25162,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.43490755969981</v>
+        <v>1.437780094802551</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.451635841251583</v>
@@ -25287,7 +25251,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.428511345717168</v>
+        <v>1.433552046351743</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.403072111955082</v>
@@ -25376,7 +25340,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.42793702775029</v>
+        <v>1.427641521265548</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.409804339213097</v>
@@ -25465,7 +25429,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.425198155894132</v>
+        <v>1.431039060547973</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.471903492897082</v>
@@ -25554,7 +25518,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.406304857574005</v>
+        <v>1.411354690055957</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.343327941452769</v>
@@ -25643,7 +25607,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.389963692496938</v>
+        <v>1.394640793799882</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.512685995631349</v>
@@ -25732,7 +25696,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.378583568921916</v>
+        <v>1.385861311446486</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.439345066518796</v>
@@ -26018,7 +25982,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.475108706510759</v>
+        <v>1.47456154491819</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.235946028307172</v>
@@ -26107,7 +26071,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.470349945172248</v>
+        <v>1.469812688558673</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.185434912005051</v>
@@ -26196,7 +26160,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.469958296141968</v>
+        <v>1.473123249782705</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.069446591672761</v>
@@ -26285,7 +26249,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.479227610462125</v>
+        <v>1.476048241139667</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.072685902449129</v>
@@ -26374,7 +26338,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.478386645662756</v>
+        <v>1.477279767732743</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.864953960950422</v>
@@ -26463,7 +26427,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.558676302495059</v>
+        <v>1.553562808342632</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.480590605379479</v>
@@ -26552,7 +26516,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.598950677907572</v>
+        <v>1.593798873489624</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.577392708610887</v>
@@ -26641,7 +26605,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.620217845864988</v>
+        <v>1.613643969972557</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.548310301079092</v>
@@ -26730,7 +26694,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.623156470979293</v>
+        <v>1.616163971663801</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.584814200333356</v>
@@ -26819,7 +26783,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.607236902551458</v>
+        <v>1.60765303040432</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.497768678146756</v>
@@ -26908,7 +26872,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.604790443533365</v>
+        <v>1.607326545599504</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.48261105182213</v>
@@ -26997,7 +26961,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.605981684747599</v>
+        <v>1.607123605541407</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.503666184285074</v>
@@ -27086,7 +27050,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.62493408442455</v>
+        <v>1.625088079794733</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.558932546153812</v>
@@ -27175,7 +27139,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.659722115448922</v>
+        <v>1.664769542000723</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.773470779108953</v>
@@ -27264,7 +27228,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.670757197489078</v>
+        <v>1.672889758747741</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.650488707912444</v>
@@ -27353,7 +27317,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.672802711829378</v>
+        <v>1.676869516825766</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.487271798355917</v>
@@ -27442,7 +27406,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.694084381447052</v>
+        <v>1.693017638079285</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.50798555320662</v>
@@ -27531,7 +27495,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.686415353103843</v>
+        <v>1.682119521201633</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.747874513379194</v>
@@ -27620,7 +27584,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.737795856272769</v>
+        <v>1.719470535835415</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.319062589218622</v>
@@ -27709,7 +27673,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.731145537516544</v>
+        <v>1.714074610344197</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.977982881288672</v>
@@ -27798,7 +27762,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.718429916389328</v>
+        <v>1.704347912865291</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.067873537591964</v>
@@ -27887,7 +27851,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.712111979843594</v>
+        <v>1.697725760533573</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.822139502515105</v>
@@ -27976,7 +27940,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.702924520049905</v>
+        <v>1.691157708300432</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.822836221174333</v>
@@ -28065,7 +28029,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.691405661843516</v>
+        <v>1.678758946523444</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.825271123493667</v>
@@ -28154,7 +28118,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.692555896755466</v>
+        <v>1.677327044225501</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.750407855337261</v>
@@ -28243,7 +28207,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.649261469776688</v>
+        <v>1.630295443971354</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.290106890961356</v>
@@ -28332,7 +28296,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.639792565725335</v>
+        <v>1.630782982518693</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.293414022226981</v>
@@ -28421,7 +28385,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.618351030095251</v>
+        <v>1.613385879897447</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.226943071204595</v>
@@ -28510,7 +28474,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.58856118153813</v>
+        <v>1.576166356452908</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.170177556755962</v>
@@ -28599,7 +28563,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.578108260066381</v>
+        <v>1.567726021496157</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.132977859785075</v>
@@ -28688,7 +28652,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.58280469158408</v>
+        <v>1.570251351077489</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.166561391391843</v>
@@ -28777,7 +28741,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.587809398090347</v>
+        <v>1.576749754245607</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.15682910628179</v>
@@ -28866,7 +28830,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.595357989504064</v>
+        <v>1.584807444812111</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.159217582290644</v>
@@ -28955,7 +28919,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.603584899092199</v>
+        <v>1.5916705698505</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.220630756065171</v>
@@ -29044,7 +29008,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.60158646065123</v>
+        <v>1.597541038081204</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.247262149010199</v>
@@ -29133,7 +29097,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.613207320658558</v>
+        <v>1.60708389166593</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.239387445280695</v>
@@ -29222,7 +29186,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.614486337794892</v>
+        <v>1.607437915844478</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.237787557087016</v>
@@ -29311,7 +29275,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.618142238590512</v>
+        <v>1.606209014789115</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.223976101365929</v>
@@ -29400,7 +29364,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.6208078223497</v>
+        <v>1.612091146329212</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.248558646492967</v>
@@ -29489,7 +29453,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.622547918466478</v>
+        <v>1.613745156388772</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.230378670807327</v>
@@ -29578,7 +29542,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.672198541416743</v>
+        <v>1.662288070226546</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.621083489596626</v>
@@ -29667,7 +29631,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.687182912827952</v>
+        <v>1.671811454458141</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.382344521348616</v>
@@ -29756,7 +29720,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.695945773145746</v>
+        <v>1.677330662615561</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.775600062781121</v>
@@ -29845,7 +29809,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.697020304343118</v>
+        <v>1.681913120697357</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.046001162921801</v>
@@ -29934,7 +29898,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.700400240118135</v>
+        <v>1.684880022962461</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.613296229915588</v>
@@ -30023,7 +29987,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.70378423913781</v>
+        <v>1.677303015705108</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.637422018889541</v>
@@ -30112,7 +30076,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.705137715020832</v>
+        <v>1.674917188809151</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.542549680852031</v>
@@ -30201,7 +30165,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.711060267780344</v>
+        <v>1.679212185882974</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.789576858117805</v>
@@ -30290,7 +30254,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.721548883984117</v>
+        <v>1.686557611840694</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.376608838915557</v>
